--- a/dados/cav outros.xlsx
+++ b/dados/cav outros.xlsx
@@ -97,10 +97,10 @@
     <t>485699</t>
   </si>
   <si>
-    <t>10/06/2025 06:00</t>
-  </si>
-  <si>
     <t>11/06/2025 06:00</t>
+  </si>
+  <si>
+    <t>12/06/2025 06:00</t>
   </si>
   <si>
     <t>6126</t>
@@ -682,46 +682,46 @@
         <v>29</v>
       </c>
       <c r="I2">
-        <v>18.399999999999636</v>
+        <v>20.550000000000182</v>
       </c>
       <c r="J2">
-        <v>8067.95</v>
+        <v>8088.7</v>
       </c>
       <c r="K2">
-        <v>54.75444666666667</v>
+        <v>62.29055722222225</v>
       </c>
       <c r="L2">
-        <v>210.5507677777778</v>
+        <v>234.91775250000006</v>
       </c>
       <c r="M2">
-        <v>8.091688888888887</v>
+        <v>3.4775955555555553</v>
       </c>
       <c r="N2">
-        <v>6.64742775289376</v>
+        <v>6.683606278544961</v>
       </c>
       <c r="O2">
-        <v>21.161984934133947</v>
+        <v>21.016758551702885</v>
       </c>
       <c r="P2">
-        <v>29.699017271333677</v>
+        <v>35.10527265077139</v>
       </c>
       <c r="Q2">
-        <v>273.3969016666666</v>
+        <v>300.6859075</v>
       </c>
       <c r="R2">
-        <v>902.0759446973157</v>
+        <v>992.1163056775882</v>
       </c>
       <c r="S2">
-        <v>0.26</v>
+        <v>0.42</v>
       </c>
       <c r="T2">
-        <v>14.839073906859179</v>
+        <v>14.613464411813588</v>
       </c>
       <c r="U2">
-        <v>48.96168000207933</v>
+        <v>48.217279106768274</v>
       </c>
       <c r="V2">
-        <v>0.27816533140752014</v>
+        <v>0.27944833406659714</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -779,46 +779,46 @@
         <v>29</v>
       </c>
       <c r="I4">
-        <v>18.25</v>
+        <v>17.5</v>
       </c>
       <c r="J4">
-        <v>8104.6</v>
+        <v>8121.9</v>
       </c>
       <c r="K4">
-        <v>40.47871805555555</v>
+        <v>36.286814166666666</v>
       </c>
       <c r="L4">
-        <v>249.87255555555558</v>
+        <v>198.62137416666667</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>5.2345789168313575</v>
+        <v>4.9777184179092995</v>
       </c>
       <c r="O4">
-        <v>23.564829896029526</v>
+        <v>19.163136216479877</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>290.3512802777778</v>
+        <v>234.90818944444445</v>
       </c>
       <c r="R4">
-        <v>958.017094758413</v>
+        <v>775.0820350136738</v>
       </c>
       <c r="S4">
-        <v>0.268</v>
+        <v>0.4</v>
       </c>
       <c r="T4">
-        <v>15.87710857966747</v>
+        <v>13.343884289290996</v>
       </c>
       <c r="U4">
-        <v>52.38668629291059</v>
+        <v>44.02828617593458</v>
       </c>
       <c r="V4">
-        <v>0.27447058311448413</v>
+        <v>0.2739656609945878</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -905,46 +905,46 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>19.75</v>
+        <v>19.700000000000728</v>
       </c>
       <c r="J7">
-        <v>8318.35</v>
+        <v>8338.45</v>
       </c>
       <c r="K7">
-        <v>52.960301666666666</v>
+        <v>64.1674272222222</v>
       </c>
       <c r="L7">
-        <v>229.38904972222215</v>
+        <v>180.20181916666672</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.02260527777777778</v>
       </c>
       <c r="N7">
-        <v>5.925832625837639</v>
+        <v>5.9023682459853495</v>
       </c>
       <c r="O7">
-        <v>19.583101522409294</v>
+        <v>19.212885025779837</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>38.269</v>
       </c>
       <c r="Q7">
-        <v>282.34935361111116</v>
+        <v>244.39185472222226</v>
       </c>
       <c r="R7">
-        <v>931.6146537898875</v>
+        <v>806.3734880714521</v>
       </c>
       <c r="S7">
-        <v>0.28800000000000003</v>
+        <v>0.5479999999999999</v>
       </c>
       <c r="T7">
-        <v>13.699288678244463</v>
+        <v>12.085491927230917</v>
       </c>
       <c r="U7">
-        <v>45.200946685107645</v>
+        <v>39.87620737809488</v>
       </c>
       <c r="V7">
-        <v>0.2827731678302882</v>
+        <v>0.2825278984791026</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -973,46 +973,46 @@
         <v>29</v>
       </c>
       <c r="I8">
-        <v>22.199999999999818</v>
+        <v>16.949999999999818</v>
       </c>
       <c r="J8">
-        <v>6330.9</v>
+        <v>6348.7</v>
       </c>
       <c r="K8">
-        <v>55.09625694444443</v>
+        <v>42.85296638888889</v>
       </c>
       <c r="L8">
-        <v>211.46193083333327</v>
+        <v>164.05420666666666</v>
       </c>
       <c r="M8">
-        <v>3.7243319444444443</v>
+        <v>0.34830000000000005</v>
       </c>
       <c r="N8">
-        <v>4.861025863957773</v>
+        <v>4.785661729485449</v>
       </c>
       <c r="O8">
-        <v>19.13901214720441</v>
+        <v>17.944152770857382</v>
       </c>
       <c r="P8">
-        <v>31.869373511195807</v>
+        <v>35.85364367816092</v>
       </c>
       <c r="Q8">
-        <v>270.28252277777784</v>
+        <v>207.25547055555563</v>
       </c>
       <c r="R8">
-        <v>891.8000188868432</v>
+        <v>683.8415989916257</v>
       </c>
       <c r="S8">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
       <c r="T8">
-        <v>12.069697513143572</v>
+        <v>11.5723777799315</v>
       </c>
       <c r="U8">
-        <v>39.824093543146766</v>
+        <v>38.183181867048596</v>
       </c>
       <c r="V8">
-        <v>0.271879327867089</v>
+        <v>0.27101989806305626</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -1070,46 +1070,46 @@
         <v>29</v>
       </c>
       <c r="I10">
-        <v>15.199999999998909</v>
+        <v>18.450000000000728</v>
       </c>
       <c r="J10">
-        <v>8807.95</v>
+        <v>8828.95</v>
       </c>
       <c r="K10">
-        <v>35.457354166666676</v>
+        <v>48.19374805555557</v>
       </c>
       <c r="L10">
-        <v>160.42327222222224</v>
+        <v>164.0813169444444</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.08514583333333332</v>
       </c>
       <c r="N10">
-        <v>5.512951709153227</v>
+        <v>4.364626510032759</v>
       </c>
       <c r="O10">
-        <v>17.585267815654447</v>
+        <v>18.176239824476646</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>20.291</v>
       </c>
       <c r="Q10">
-        <v>195.88062472222225</v>
+        <v>212.36021361111108</v>
       </c>
       <c r="R10">
-        <v>646.3101758542815</v>
+        <v>700.6847522468576</v>
       </c>
       <c r="S10">
-        <v>0.408</v>
+        <v>0.508</v>
       </c>
       <c r="T10">
-        <v>12.628797524517896</v>
+        <v>10.638093188421996</v>
       </c>
       <c r="U10">
-        <v>41.66884989505193</v>
+        <v>35.10050005769275</v>
       </c>
       <c r="V10">
-        <v>0.28366721850384574</v>
+        <v>0.2599342436015561</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -1167,46 +1167,46 @@
         <v>29</v>
       </c>
       <c r="I12">
-        <v>14.800000000000068</v>
+        <v>19.350000000000023</v>
       </c>
       <c r="J12">
-        <v>900.8</v>
+        <v>920.75</v>
       </c>
       <c r="K12">
-        <v>75.5394463888889</v>
+        <v>98.74505638888893</v>
       </c>
       <c r="L12">
-        <v>143.91277916666664</v>
+        <v>181.29623416666666</v>
       </c>
       <c r="M12">
-        <v>0.28510944444444447</v>
+        <v>0.24932</v>
       </c>
       <c r="N12">
-        <v>9.414180540940931</v>
+        <v>10.255380847025434</v>
       </c>
       <c r="O12">
-        <v>17.731524445083263</v>
+        <v>18.22936227370984</v>
       </c>
       <c r="P12">
-        <v>26.331860103626944</v>
+        <v>23.83493315508021</v>
       </c>
       <c r="Q12">
-        <v>219.73733638888882</v>
+        <v>280.29060944444456</v>
       </c>
       <c r="R12">
-        <v>725.0256462304535</v>
+        <v>924.8218058178935</v>
       </c>
       <c r="S12">
-        <v>0.28</v>
+        <v>0.20800000000000002</v>
       </c>
       <c r="T12">
-        <v>13.604916714818328</v>
+        <v>14.311854232850756</v>
       </c>
       <c r="U12">
-        <v>44.88956540191971</v>
+        <v>47.22211315770443</v>
       </c>
       <c r="V12">
-        <v>0.35563173010212956</v>
+        <v>0.3543690142120765</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -1235,46 +1235,46 @@
         <v>29</v>
       </c>
       <c r="I13">
-        <v>18.34999999999991</v>
+        <v>20.15000000000009</v>
       </c>
       <c r="J13">
-        <v>898.15</v>
+        <v>919.35</v>
       </c>
       <c r="K13">
-        <v>58.02698583333334</v>
+        <v>65.54157027777777</v>
       </c>
       <c r="L13">
-        <v>173.73182583333332</v>
+        <v>229.0230641666667</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.10196666666666666</v>
       </c>
       <c r="N13">
-        <v>6.516761334855461</v>
+        <v>7.374698542762406</v>
       </c>
       <c r="O13">
-        <v>15.828533845698335</v>
+        <v>19.70974921536428</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>22.215</v>
       </c>
       <c r="Q13">
-        <v>231.7588111111111</v>
+        <v>294.666598888889</v>
       </c>
       <c r="R13">
-        <v>764.6906281691488</v>
+        <v>972.2555337789627</v>
       </c>
       <c r="S13">
-        <v>0.384</v>
+        <v>0.244</v>
       </c>
       <c r="T13">
-        <v>11.657670558074228</v>
+        <v>14.36563018044734</v>
       </c>
       <c r="U13">
-        <v>38.464606283162745</v>
+        <v>47.39954746085292</v>
       </c>
       <c r="V13">
-        <v>0.3121175315073432</v>
+        <v>0.3351097380487189</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -1448,46 +1448,46 @@
         <v>29</v>
       </c>
       <c r="I19">
-        <v>8</v>
+        <v>15.649999999999977</v>
       </c>
       <c r="J19">
-        <v>912.7</v>
+        <v>928.65</v>
       </c>
       <c r="K19">
-        <v>47.11107833333334</v>
+        <v>85.92194916666664</v>
       </c>
       <c r="L19">
-        <v>90.73307111111112</v>
+        <v>177.72969361111114</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>4.699350277777778</v>
       </c>
       <c r="N19">
-        <v>11.184889375395652</v>
+        <v>10.254594336683285</v>
       </c>
       <c r="O19">
-        <v>24.11940562032532</v>
+        <v>23.49801100204544</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>31.377543005758874</v>
       </c>
       <c r="Q19">
-        <v>137.8441494444444</v>
+        <v>268.35099638888886</v>
       </c>
       <c r="R19">
-        <v>454.81821693320154</v>
+        <v>885.4269273070081</v>
       </c>
       <c r="S19">
-        <v>0.584</v>
+        <v>0.48</v>
       </c>
       <c r="T19">
-        <v>17.28687424630336</v>
+        <v>16.675430647989618</v>
       </c>
       <c r="U19">
-        <v>57.03822289694615</v>
+        <v>55.02075833090479</v>
       </c>
       <c r="V19">
-        <v>0.3961257463439467</v>
+        <v>0.3847013109004043</v>
       </c>
     </row>
   </sheetData>
